--- a/db/account_weekly_snapshot.xlsx
+++ b/db/account_weekly_snapshot.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,7 +812,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,30 +821,26 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>783.76</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-06-20</t>
-        </is>
+        <v>36510.98</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" s="2" t="n">
+        <v>45830.15939476852</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>401K</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> stocks</t>
+          <t xml:space="preserve"> crypto</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25004.86</v>
+        <v>783.76</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -858,7 +854,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>401kM</t>
+          <t>401K</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -867,7 +863,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2922.05</v>
+        <v>25004.86</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -881,7 +877,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CGI</t>
+          <t>401kM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -890,7 +886,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8276.860000000001</v>
+        <v>2922.05</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -904,7 +900,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HSA</t>
+          <t>CGI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -913,7 +909,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5738.01</v>
+        <v>8276.860000000001</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -927,7 +923,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Robinhood</t>
+          <t>HSA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -936,7 +932,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7098.08</v>
+        <v>5738.01</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -950,7 +946,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RobinhoodM</t>
+          <t>Robinhood</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -959,7 +955,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9383.99</v>
+        <v>7098.08</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -973,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Schwab</t>
+          <t>RobinhoodM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -982,7 +978,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9494.98</v>
+        <v>9383.99</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -996,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Webull</t>
+          <t>RobinhoodM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1005,36 +1001,78 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-06-20</t>
-        </is>
+        <v>8824.620000000001</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" s="2" t="n">
+        <v>45830.16335171296</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Schwab</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t xml:space="preserve"> stocks</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9494.98</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-06-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Webull</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> stocks</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>16</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-06-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Crypto</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t xml:space="preserve"> crypto</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>36595.08</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" s="2" t="n">
-        <v>45830</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>732.41</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" s="2" t="n">
+        <v>45830.16999824475</v>
       </c>
     </row>
   </sheetData>

--- a/db/account_weekly_snapshot.xlsx
+++ b/db/account_weekly_snapshot.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithi\OneDrive\Documents\AI\financeAssistant\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B89C6EB-7187-4DED-80A6-2BC15E91DA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1562F-13B9-4D4E-8BCE-A9391B1AE974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>bank</t>
   </si>
@@ -49,27 +54,15 @@
     <t>Chase</t>
   </si>
   <si>
-    <t>ChaseM</t>
-  </si>
-  <si>
     <t>DCU</t>
   </si>
   <si>
-    <t>Affirm</t>
-  </si>
-  <si>
     <t xml:space="preserve"> credit</t>
   </si>
   <si>
     <t>Amex</t>
   </si>
   <si>
-    <t>BofaGrey</t>
-  </si>
-  <si>
-    <t>BofaRed</t>
-  </si>
-  <si>
     <t>Citi</t>
   </si>
   <si>
@@ -82,34 +75,19 @@
     <t xml:space="preserve"> crypto</t>
   </si>
   <si>
-    <t>Crypto</t>
-  </si>
-  <si>
     <t>401K</t>
   </si>
   <si>
     <t xml:space="preserve"> stocks</t>
   </si>
   <si>
-    <t>401kM</t>
-  </si>
-  <si>
     <t>CGI</t>
   </si>
   <si>
-    <t>HSA</t>
-  </si>
-  <si>
     <t>Robinhood</t>
   </si>
   <si>
-    <t>RobinhoodM</t>
-  </si>
-  <si>
-    <t>Schwab</t>
-  </si>
-  <si>
-    <t>Webull</t>
+    <t>PNC</t>
   </si>
 </sst>
 </file>
@@ -179,7 +157,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -202,44 +180,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -266,14 +244,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -300,6 +279,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -311,180 +291,157 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4557.74</v>
+        <v>15000</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -530,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -541,13 +498,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>153.76</v>
+        <v>500</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -558,13 +515,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>6000</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -575,13 +532,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>264.42</v>
+        <v>12500</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -595,13 +552,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>500.49</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>27.81</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>45830.159394733797</v>
@@ -609,13 +566,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>68.430000000000007</v>
+        <v>200.5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -626,16 +583,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>199.62</v>
+        <v>1743.54</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E9" s="2">
         <v>45830.159394733797</v>
@@ -643,16 +600,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>241.9</v>
+        <v>1780</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2">
         <v>45830.159394733797</v>
@@ -660,16 +617,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1743.54</v>
+        <v>36.6</v>
       </c>
       <c r="D11">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <v>45830.159394733797</v>
@@ -677,13 +634,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>227.33</v>
+        <v>250</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -694,16 +651,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>1780</v>
+        <v>65025</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
         <v>45830.159394733797</v>
@@ -711,13 +668,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>38.06</v>
+        <v>125000</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -728,13 +685,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
       <c r="C15">
-        <v>239.96</v>
+        <v>23500</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -745,13 +702,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>37230.71</v>
+        <v>7098.08</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -760,161 +717,8 @@
         <v>45830.159394733797</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>783.76</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>45830.159394733797</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>25004.86</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>45830.159394733797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>2922.05</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>45830.159394733797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>8276.86</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>45830.159394733797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>5738.01</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>45830.159394733797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>7098.08</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>45830.159394733797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>9383.99</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>45830.159394733797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>9494.98</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>45830.159394733797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>45830.159394733797</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
